--- a/data/recodes.xlsx
+++ b/data/recodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresgf91/World_Bank/GFDRR/Shiny_Dashboards/Github_Code/GFDRR_Grant-Monitoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb480070\OneDrive - WBG\SARA-GFDRR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3FFF1-4DCE-6E46-B50E-1CF2FF412003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{23C3FFF1-4DCE-6E46-B50E-1CF2FF412003}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E1C1078-460C-49D9-983A-5BF64355481E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F6F787E3-ED06-4549-9535-9B0E11AF8C05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F787E3-ED06-4549-9535-9B0E11AF8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Trustee_Names" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>TF072236</t>
   </si>
@@ -208,13 +206,61 @@
   </si>
   <si>
     <t>Sweden Non-Core TF</t>
+  </si>
+  <si>
+    <t>TF070611</t>
+  </si>
+  <si>
+    <t>MDTF</t>
+  </si>
+  <si>
+    <t>Standby Recovery Financing Facility</t>
+  </si>
+  <si>
+    <t>TF070948</t>
+  </si>
+  <si>
+    <t>TF070809</t>
+  </si>
+  <si>
+    <t>Japan TF for Mainstreaming DRM</t>
+  </si>
+  <si>
+    <t>TF070952</t>
+  </si>
+  <si>
+    <t>South-South Cooperation MDTF</t>
+  </si>
+  <si>
+    <t>TF070806</t>
+  </si>
+  <si>
+    <t>Spanish Trust Fund for Mainstreaming DRR</t>
+  </si>
+  <si>
+    <t>TF070868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callable Funds - Standby Recovery Financing Facility </t>
+  </si>
+  <si>
+    <t>TF071345</t>
+  </si>
+  <si>
+    <t>Track III Standby Recovery Financing Facility</t>
+  </si>
+  <si>
+    <t>TF070807</t>
+  </si>
+  <si>
+    <t>Australian Trust Fund for Mainstreaming DRR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,12 +282,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -285,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -304,8 +344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -622,210 +661,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B551F0-E4F6-1340-AFAF-61079A13A0FE}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" customWidth="1"/>
+    <col min="3" max="3" width="68.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,13 +920,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" customWidth="1"/>
+    <col min="6" max="6" width="31.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -855,7 +935,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -863,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -871,7 +951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -879,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -887,7 +967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -895,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -903,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -911,7 +991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
